--- a/data/pca/factorExposure/factorExposure_2009-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01777931990480209</v>
+        <v>0.01671711073869613</v>
       </c>
       <c r="C2">
-        <v>-0.001545670564353212</v>
+        <v>0.0009210443959268677</v>
       </c>
       <c r="D2">
-        <v>0.003692624748810155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009592792464955839</v>
+      </c>
+      <c r="E2">
+        <v>0.002279704042912816</v>
+      </c>
+      <c r="F2">
+        <v>0.01307906245469845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09606302569564117</v>
+        <v>0.09402648394932399</v>
       </c>
       <c r="C4">
-        <v>-0.02087895642405865</v>
+        <v>0.01489245613430925</v>
       </c>
       <c r="D4">
-        <v>0.06495282222630679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08321800646803382</v>
+      </c>
+      <c r="E4">
+        <v>0.02910505654097182</v>
+      </c>
+      <c r="F4">
+        <v>-0.03244729353416491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1489480561926247</v>
+        <v>0.1594742784471088</v>
       </c>
       <c r="C6">
-        <v>-0.0269505246008954</v>
+        <v>0.02703724325102091</v>
       </c>
       <c r="D6">
-        <v>-0.02470707493794113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02580051662408229</v>
+      </c>
+      <c r="E6">
+        <v>0.008633210711667996</v>
+      </c>
+      <c r="F6">
+        <v>-0.0414527396974465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06335943939724885</v>
+        <v>0.06341368389461569</v>
       </c>
       <c r="C7">
-        <v>-0.003037772282817536</v>
+        <v>-0.001677028385975045</v>
       </c>
       <c r="D7">
-        <v>0.03965433086202989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05253483578777399</v>
+      </c>
+      <c r="E7">
+        <v>0.01212726444288655</v>
+      </c>
+      <c r="F7">
+        <v>-0.04703265532674601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06299574792252496</v>
+        <v>0.05762731570355274</v>
       </c>
       <c r="C8">
-        <v>0.009701007208030412</v>
+        <v>-0.01314680483975974</v>
       </c>
       <c r="D8">
-        <v>0.01793397581568993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03244761093559405</v>
+      </c>
+      <c r="E8">
+        <v>0.01807049786102359</v>
+      </c>
+      <c r="F8">
+        <v>0.02655879355570055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07405961100574607</v>
+        <v>0.07088411754540241</v>
       </c>
       <c r="C9">
-        <v>-0.01714842829053982</v>
+        <v>0.01038215621674935</v>
       </c>
       <c r="D9">
-        <v>0.06778342395307775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08732758142812719</v>
+      </c>
+      <c r="E9">
+        <v>0.02433150487060988</v>
+      </c>
+      <c r="F9">
+        <v>-0.04646018142851181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08171264094805365</v>
+        <v>0.09038461519204988</v>
       </c>
       <c r="C10">
-        <v>-0.01203997426201021</v>
+        <v>0.02060290088184501</v>
       </c>
       <c r="D10">
-        <v>-0.1661816823865216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1639065354668495</v>
+      </c>
+      <c r="E10">
+        <v>-0.03323917717913435</v>
+      </c>
+      <c r="F10">
+        <v>0.05673762641201221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09371276808638308</v>
+        <v>0.08837459832223453</v>
       </c>
       <c r="C11">
-        <v>-0.01816595886229193</v>
+        <v>0.01052615349795394</v>
       </c>
       <c r="D11">
-        <v>0.09408469577875636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169600878773386</v>
+      </c>
+      <c r="E11">
+        <v>0.04644948131327316</v>
+      </c>
+      <c r="F11">
+        <v>-0.02252951795204039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09995978338418077</v>
+        <v>0.09196837072250795</v>
       </c>
       <c r="C12">
-        <v>-0.01595245636709353</v>
+        <v>0.007861876536498304</v>
       </c>
       <c r="D12">
-        <v>0.09752953643473973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1315828044953029</v>
+      </c>
+      <c r="E12">
+        <v>0.04592352674010897</v>
+      </c>
+      <c r="F12">
+        <v>-0.03117267251543455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04290162508194514</v>
+        <v>0.04147845464562148</v>
       </c>
       <c r="C13">
-        <v>-0.006226760163615825</v>
+        <v>0.002451815373337005</v>
       </c>
       <c r="D13">
-        <v>0.03067274909334795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05284044214042538</v>
+      </c>
+      <c r="E13">
+        <v>-0.004320997268852884</v>
+      </c>
+      <c r="F13">
+        <v>-0.0009824296669700618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02020409677636469</v>
+        <v>0.02415344905259038</v>
       </c>
       <c r="C14">
-        <v>-0.01531385441226197</v>
+        <v>0.01389510468726563</v>
       </c>
       <c r="D14">
-        <v>0.02341060177766249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03349538467130443</v>
+      </c>
+      <c r="E14">
+        <v>0.01903747917236131</v>
+      </c>
+      <c r="F14">
+        <v>-0.01396062163910455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03524905302853464</v>
+        <v>0.03319116964532874</v>
       </c>
       <c r="C15">
-        <v>-0.007947176155249194</v>
+        <v>0.004756440266686</v>
       </c>
       <c r="D15">
-        <v>0.02907590623157239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04514263526097689</v>
+      </c>
+      <c r="E15">
+        <v>0.006199323855679297</v>
+      </c>
+      <c r="F15">
+        <v>-0.02541041643657752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07979107284419956</v>
+        <v>0.07436701847484553</v>
       </c>
       <c r="C16">
-        <v>-0.008748687597255334</v>
+        <v>0.001113385999752613</v>
       </c>
       <c r="D16">
-        <v>0.09731300236074707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277358766915954</v>
+      </c>
+      <c r="E16">
+        <v>0.06088452027090381</v>
+      </c>
+      <c r="F16">
+        <v>-0.02791205856684459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007804131741822078</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002060836583187058</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001557737848802906</v>
+      </c>
+      <c r="E17">
+        <v>0.0009808073848558249</v>
+      </c>
+      <c r="F17">
+        <v>0.002297169191061946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01723748107281061</v>
+        <v>0.03646187589399103</v>
       </c>
       <c r="C18">
-        <v>0.003105521504845394</v>
+        <v>-0.002903433061426877</v>
       </c>
       <c r="D18">
-        <v>0.03042556749443737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01556806638420464</v>
+      </c>
+      <c r="E18">
+        <v>-0.008854576327061357</v>
+      </c>
+      <c r="F18">
+        <v>0.008507557169704772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06620724107023437</v>
+        <v>0.06232845803016933</v>
       </c>
       <c r="C20">
-        <v>-0.006632968249541195</v>
+        <v>0.0002823151060606781</v>
       </c>
       <c r="D20">
-        <v>0.04939546862293012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0770294306733043</v>
+      </c>
+      <c r="E20">
+        <v>0.05575063525313222</v>
+      </c>
+      <c r="F20">
+        <v>-0.02960609439713901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04207855375472534</v>
+        <v>0.04089150225181724</v>
       </c>
       <c r="C21">
-        <v>-0.01006606602476565</v>
+        <v>0.006538506303041269</v>
       </c>
       <c r="D21">
-        <v>0.02668755043250306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03880832388857996</v>
+      </c>
+      <c r="E21">
+        <v>-0.0003560938131801931</v>
+      </c>
+      <c r="F21">
+        <v>0.02454127671371018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0409110527804218</v>
+        <v>0.04355289936027021</v>
       </c>
       <c r="C22">
-        <v>-0.0007917349863319975</v>
+        <v>0.0006207384814234167</v>
       </c>
       <c r="D22">
-        <v>-0.01156115438406506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003247060556785253</v>
+      </c>
+      <c r="E22">
+        <v>0.03637893284469011</v>
+      </c>
+      <c r="F22">
+        <v>0.03853532235584329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04087404578817556</v>
+        <v>0.04352865156911673</v>
       </c>
       <c r="C23">
-        <v>-0.0007822434339918992</v>
+        <v>0.0006122604029823105</v>
       </c>
       <c r="D23">
-        <v>-0.01154146383350058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003262387018459019</v>
+      </c>
+      <c r="E23">
+        <v>0.03656202844179602</v>
+      </c>
+      <c r="F23">
+        <v>0.03849580375927551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08504831123613019</v>
+        <v>0.08021521298363357</v>
       </c>
       <c r="C24">
-        <v>-0.009175814880673844</v>
+        <v>0.001849751831268886</v>
       </c>
       <c r="D24">
-        <v>0.1021151386816015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200795078973955</v>
+      </c>
+      <c r="E24">
+        <v>0.04878863089260736</v>
+      </c>
+      <c r="F24">
+        <v>-0.02947311414246506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08985592925909451</v>
+        <v>0.08489657999808792</v>
       </c>
       <c r="C25">
-        <v>-0.01159253192982565</v>
+        <v>0.004349791067196241</v>
       </c>
       <c r="D25">
-        <v>0.08858647127839429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095707710716169</v>
+      </c>
+      <c r="E25">
+        <v>0.03223803351334401</v>
+      </c>
+      <c r="F25">
+        <v>-0.0268271445577412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.058296664653008</v>
+        <v>0.05913744070129787</v>
       </c>
       <c r="C26">
-        <v>-0.01812862154960103</v>
+        <v>0.01460421106494461</v>
       </c>
       <c r="D26">
-        <v>0.01801264276475595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04168702161617468</v>
+      </c>
+      <c r="E26">
+        <v>0.02952908801436732</v>
+      </c>
+      <c r="F26">
+        <v>0.005793925805113633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1296787687944777</v>
+        <v>0.1409848251076149</v>
       </c>
       <c r="C28">
-        <v>-0.01042538048703729</v>
+        <v>0.02194746973606906</v>
       </c>
       <c r="D28">
-        <v>-0.2733339811034231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2603511354491365</v>
+      </c>
+      <c r="E28">
+        <v>-0.06755483086540456</v>
+      </c>
+      <c r="F28">
+        <v>-0.004115017294453617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02621945280919284</v>
+        <v>0.02882465965047465</v>
       </c>
       <c r="C29">
-        <v>-0.01002481290891409</v>
+        <v>0.008809595106654586</v>
       </c>
       <c r="D29">
-        <v>0.02063590979114862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0312776517825615</v>
+      </c>
+      <c r="E29">
+        <v>0.01405352865136937</v>
+      </c>
+      <c r="F29">
+        <v>0.01241916160509863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06810409873848407</v>
+        <v>0.05937702528634917</v>
       </c>
       <c r="C30">
-        <v>-0.01045954496200678</v>
+        <v>0.002838443896612977</v>
       </c>
       <c r="D30">
-        <v>0.05921674229717765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08798815153599759</v>
+      </c>
+      <c r="E30">
+        <v>0.01437079633632403</v>
+      </c>
+      <c r="F30">
+        <v>-0.07931341849790863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05105041562996477</v>
+        <v>0.05133304779981746</v>
       </c>
       <c r="C31">
-        <v>-0.0168747652680652</v>
+        <v>0.01568611576867939</v>
       </c>
       <c r="D31">
-        <v>0.02057309504947086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02422042961786965</v>
+      </c>
+      <c r="E31">
+        <v>0.02879622979265495</v>
+      </c>
+      <c r="F31">
+        <v>0.0009928502125164831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04819817438005925</v>
+        <v>0.05156207836262337</v>
       </c>
       <c r="C32">
-        <v>-0.002220243106313425</v>
+        <v>-0.001730053690408611</v>
       </c>
       <c r="D32">
-        <v>0.01889627199598883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03611185384507433</v>
+      </c>
+      <c r="E32">
+        <v>0.03452196960396523</v>
+      </c>
+      <c r="F32">
+        <v>-0.00416368322080884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09467612123038305</v>
+        <v>0.08881952740279554</v>
       </c>
       <c r="C33">
-        <v>-0.014025062296724</v>
+        <v>0.006624185004937676</v>
       </c>
       <c r="D33">
-        <v>0.0753749783682988</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1030150956872294</v>
+      </c>
+      <c r="E33">
+        <v>0.04521973671856265</v>
+      </c>
+      <c r="F33">
+        <v>-0.0390505787113315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07218830988917851</v>
+        <v>0.06814653398500345</v>
       </c>
       <c r="C34">
-        <v>-0.01616229958684352</v>
+        <v>0.01014139901830519</v>
       </c>
       <c r="D34">
-        <v>0.08254149087022696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099309829027117</v>
+      </c>
+      <c r="E34">
+        <v>0.03503280459084179</v>
+      </c>
+      <c r="F34">
+        <v>-0.03353984268260351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02388844522674934</v>
+        <v>0.02542268390431231</v>
       </c>
       <c r="C35">
-        <v>-0.002882726093848996</v>
+        <v>0.002604404872459901</v>
       </c>
       <c r="D35">
-        <v>0.006071987875946109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01209496239150557</v>
+      </c>
+      <c r="E35">
+        <v>0.01274883150075348</v>
+      </c>
+      <c r="F35">
+        <v>-0.00148066080032237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0274476077772348</v>
+        <v>0.0277041627839334</v>
       </c>
       <c r="C36">
-        <v>-0.008033248453758676</v>
+        <v>0.006885204606041318</v>
       </c>
       <c r="D36">
-        <v>0.03840887397005962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03992235118041388</v>
+      </c>
+      <c r="E36">
+        <v>0.017010691251008</v>
+      </c>
+      <c r="F36">
+        <v>-0.0147059913852917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0003431036719835683</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005383126992254858</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002240053991537438</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007534466660149297</v>
+      </c>
+      <c r="F37">
+        <v>0.001715364854475297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1181284450910982</v>
+        <v>0.1044299812482646</v>
       </c>
       <c r="C39">
-        <v>-0.02466026815086944</v>
+        <v>0.01579182843124016</v>
       </c>
       <c r="D39">
-        <v>0.1380794831997139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1543269430480489</v>
+      </c>
+      <c r="E39">
+        <v>0.05973631054992039</v>
+      </c>
+      <c r="F39">
+        <v>-0.03040475992134921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03998504896907268</v>
+        <v>0.04149068909613475</v>
       </c>
       <c r="C40">
-        <v>-0.01007300911787404</v>
+        <v>0.007207823763565962</v>
       </c>
       <c r="D40">
-        <v>0.006472305271048365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02988686931115328</v>
+      </c>
+      <c r="E40">
+        <v>0.0009563031667645649</v>
+      </c>
+      <c r="F40">
+        <v>0.01885435886501763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02500851708137062</v>
+        <v>0.0277362296979226</v>
       </c>
       <c r="C41">
-        <v>-0.007126233576755164</v>
+        <v>0.006839416186406233</v>
       </c>
       <c r="D41">
-        <v>0.009575301442223084</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01049178646942354</v>
+      </c>
+      <c r="E41">
+        <v>0.01209215779612179</v>
+      </c>
+      <c r="F41">
+        <v>0.005577450568008198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04190925653472673</v>
+        <v>0.04093227848079324</v>
       </c>
       <c r="C43">
-        <v>-0.008392214398573827</v>
+        <v>0.007125675903845152</v>
       </c>
       <c r="D43">
-        <v>0.01224021270702481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01852082453469325</v>
+      </c>
+      <c r="E43">
+        <v>0.02557028015238608</v>
+      </c>
+      <c r="F43">
+        <v>0.01257282892121735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.07746118902879338</v>
+        <v>0.08045618332854859</v>
       </c>
       <c r="C44">
-        <v>-0.02722913266258702</v>
+        <v>0.01950007281528721</v>
       </c>
       <c r="D44">
-        <v>0.07606317235047547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09746216378366508</v>
+      </c>
+      <c r="E44">
+        <v>0.06240517465151074</v>
+      </c>
+      <c r="F44">
+        <v>-0.1598901070220828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01957657998277887</v>
+        <v>0.02324109695701855</v>
       </c>
       <c r="C46">
-        <v>-0.003685673328719801</v>
+        <v>0.003311168560814461</v>
       </c>
       <c r="D46">
-        <v>0.00728301141393151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01274789886176724</v>
+      </c>
+      <c r="E46">
+        <v>0.02579772314986089</v>
+      </c>
+      <c r="F46">
+        <v>0.00689158494584555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05338465938004181</v>
+        <v>0.05280451884396496</v>
       </c>
       <c r="C47">
-        <v>-0.004530241545944595</v>
+        <v>0.003864662443425383</v>
       </c>
       <c r="D47">
-        <v>0.006446145970508475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0112659409365106</v>
+      </c>
+      <c r="E47">
+        <v>0.0234287992226588</v>
+      </c>
+      <c r="F47">
+        <v>0.032808153434529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04935540287628645</v>
+        <v>0.04994473298436334</v>
       </c>
       <c r="C48">
-        <v>-0.005243600259502812</v>
+        <v>0.00216055715885505</v>
       </c>
       <c r="D48">
-        <v>0.04112974086602231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05100758156863204</v>
+      </c>
+      <c r="E48">
+        <v>-0.004660690271118204</v>
+      </c>
+      <c r="F48">
+        <v>-0.009720743274341366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2015121730764315</v>
+        <v>0.1995412400035832</v>
       </c>
       <c r="C49">
-        <v>-0.02039577873536492</v>
+        <v>0.01896263293547036</v>
       </c>
       <c r="D49">
-        <v>-0.01858861222535445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006707787920698431</v>
+      </c>
+      <c r="E49">
+        <v>0.03048049281753662</v>
+      </c>
+      <c r="F49">
+        <v>-0.04062227410317602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04999439334686918</v>
+        <v>0.05178979947919062</v>
       </c>
       <c r="C50">
-        <v>-0.01289869568149678</v>
+        <v>0.01141080703733433</v>
       </c>
       <c r="D50">
-        <v>0.01969687438706114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02344657482269153</v>
+      </c>
+      <c r="E50">
+        <v>0.02992359436002592</v>
+      </c>
+      <c r="F50">
+        <v>-0.009844401691901185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552903792521782</v>
+        <v>0.14965984528604</v>
       </c>
       <c r="C52">
-        <v>-0.01910898241437726</v>
+        <v>0.01783295403808309</v>
       </c>
       <c r="D52">
-        <v>0.05006811306918253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0407504792254797</v>
+      </c>
+      <c r="E52">
+        <v>0.02045828529175323</v>
+      </c>
+      <c r="F52">
+        <v>-0.04358277922606547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1723906457600256</v>
+        <v>0.171699199776675</v>
       </c>
       <c r="C53">
-        <v>-0.01886224223458961</v>
+        <v>0.02020920819140167</v>
       </c>
       <c r="D53">
-        <v>0.01505905150363534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002781934239151434</v>
+      </c>
+      <c r="E53">
+        <v>0.02778299908614537</v>
+      </c>
+      <c r="F53">
+        <v>-0.07300909581772511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01788297300585675</v>
+        <v>0.02079858365333578</v>
       </c>
       <c r="C54">
-        <v>-0.01283716487444079</v>
+        <v>0.01124112055187781</v>
       </c>
       <c r="D54">
-        <v>0.0265529860981309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03439491380542688</v>
+      </c>
+      <c r="E54">
+        <v>0.02230115482195521</v>
+      </c>
+      <c r="F54">
+        <v>0.003044486381147259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1141473574741741</v>
+        <v>0.1150646179622477</v>
       </c>
       <c r="C55">
-        <v>-0.01724014823788576</v>
+        <v>0.01773977256322622</v>
       </c>
       <c r="D55">
-        <v>0.01295997462545735</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006263644587162508</v>
+      </c>
+      <c r="E55">
+        <v>0.02321445669461697</v>
+      </c>
+      <c r="F55">
+        <v>-0.04683178888995573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1787825367119244</v>
+        <v>0.1773138076982037</v>
       </c>
       <c r="C56">
-        <v>-0.01630056091017474</v>
+        <v>0.0181003991112478</v>
       </c>
       <c r="D56">
-        <v>0.01061791169649393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005054857661288679</v>
+      </c>
+      <c r="E56">
+        <v>0.03117103137208396</v>
+      </c>
+      <c r="F56">
+        <v>-0.05345864703766131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04949642895116244</v>
+        <v>0.04470307955153898</v>
       </c>
       <c r="C58">
-        <v>-0.005797993117164424</v>
+        <v>-0.0003700998625301537</v>
       </c>
       <c r="D58">
-        <v>0.05355150240434701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07139883025930092</v>
+      </c>
+      <c r="E58">
+        <v>0.03263655797727163</v>
+      </c>
+      <c r="F58">
+        <v>0.03585519662683331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1595520997550758</v>
+        <v>0.1663400146844377</v>
       </c>
       <c r="C59">
-        <v>-0.0122446785075172</v>
+        <v>0.02225217833566046</v>
       </c>
       <c r="D59">
-        <v>-0.22519192382035</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2175816583418787</v>
+      </c>
+      <c r="E59">
+        <v>-0.0473090386139749</v>
+      </c>
+      <c r="F59">
+        <v>0.03431934599526575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.237880777059064</v>
+        <v>0.2321321570986638</v>
       </c>
       <c r="C60">
-        <v>-0.0003473245221155949</v>
+        <v>-0.001804435500401566</v>
       </c>
       <c r="D60">
-        <v>0.0446355959054161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03742879633506505</v>
+      </c>
+      <c r="E60">
+        <v>0.005975424513237714</v>
+      </c>
+      <c r="F60">
+        <v>0.0002139049631015823</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08890324710011407</v>
+        <v>0.08010184511608442</v>
       </c>
       <c r="C61">
-        <v>-0.01843139330844627</v>
+        <v>0.01130886056594348</v>
       </c>
       <c r="D61">
-        <v>0.0957764142594955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1176859935948076</v>
+      </c>
+      <c r="E61">
+        <v>0.03929823843762274</v>
+      </c>
+      <c r="F61">
+        <v>-0.01318541679599414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1705032876514955</v>
+        <v>0.1693738051457947</v>
       </c>
       <c r="C62">
-        <v>-0.02055260937702992</v>
+        <v>0.02093402012184111</v>
       </c>
       <c r="D62">
-        <v>0.006401649021392833</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.003540878319704204</v>
+      </c>
+      <c r="E62">
+        <v>0.03194188610939372</v>
+      </c>
+      <c r="F62">
+        <v>-0.03651194641433959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0445055223587756</v>
+        <v>0.04583405125133005</v>
       </c>
       <c r="C63">
-        <v>-0.006072765929195388</v>
+        <v>0.001781358219701982</v>
       </c>
       <c r="D63">
-        <v>0.04202233344324569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05928781815531871</v>
+      </c>
+      <c r="E63">
+        <v>0.0239261578067682</v>
+      </c>
+      <c r="F63">
+        <v>-0.004099937353040406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1115908665375536</v>
+        <v>0.1110314616947618</v>
       </c>
       <c r="C64">
-        <v>-0.01468932185036231</v>
+        <v>0.01153243947845851</v>
       </c>
       <c r="D64">
-        <v>0.03233420500138046</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04239149169356338</v>
+      </c>
+      <c r="E64">
+        <v>0.02233025081460562</v>
+      </c>
+      <c r="F64">
+        <v>-0.02589441255712107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1392102224391036</v>
+        <v>0.1509792347220278</v>
       </c>
       <c r="C65">
-        <v>-0.03242480421163046</v>
+        <v>0.03433933231855587</v>
       </c>
       <c r="D65">
-        <v>-0.04781908495935729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0464386536113224</v>
+      </c>
+      <c r="E65">
+        <v>0.003873451371015375</v>
+      </c>
+      <c r="F65">
+        <v>-0.03661364160989596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1413060690513409</v>
+        <v>0.1241801457780646</v>
       </c>
       <c r="C66">
-        <v>-0.02269691335294593</v>
+        <v>0.01378491101425587</v>
       </c>
       <c r="D66">
-        <v>0.115416586482401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1413279839343381</v>
+      </c>
+      <c r="E66">
+        <v>0.06452249797975172</v>
+      </c>
+      <c r="F66">
+        <v>-0.03419682345009311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06454755186277432</v>
+        <v>0.05731671934300059</v>
       </c>
       <c r="C67">
-        <v>-0.005442892466949578</v>
+        <v>0.002883389105945598</v>
       </c>
       <c r="D67">
-        <v>0.05218646054319415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05565712110368379</v>
+      </c>
+      <c r="E67">
+        <v>0.01677098080880643</v>
+      </c>
+      <c r="F67">
+        <v>0.02943619889369246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1032187025121342</v>
+        <v>0.1156184988594115</v>
       </c>
       <c r="C68">
-        <v>-0.02074178863670915</v>
+        <v>0.03272332728091798</v>
       </c>
       <c r="D68">
-        <v>-0.2728434089221035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608204027121981</v>
+      </c>
+      <c r="E68">
+        <v>-0.08775437477017728</v>
+      </c>
+      <c r="F68">
+        <v>0.002010014777560238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04066958436464831</v>
+        <v>0.03908467569306727</v>
       </c>
       <c r="C69">
-        <v>-0.001623145420342996</v>
+        <v>0.001285598311584782</v>
       </c>
       <c r="D69">
-        <v>0.007074480825749377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00755598352914271</v>
+      </c>
+      <c r="E69">
+        <v>0.02338307894296225</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008592439313564435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06759796289755461</v>
+        <v>0.06683170682680345</v>
       </c>
       <c r="C70">
-        <v>0.02381281958983075</v>
+        <v>-0.02729934376363544</v>
       </c>
       <c r="D70">
-        <v>-0.01626953304863537</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02405646340324527</v>
+      </c>
+      <c r="E70">
+        <v>-0.03116334087743078</v>
+      </c>
+      <c r="F70">
+        <v>0.1786009361921498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1207899543027293</v>
+        <v>0.1353734381826613</v>
       </c>
       <c r="C71">
-        <v>-0.02418783736904649</v>
+        <v>0.03708385572115548</v>
       </c>
       <c r="D71">
-        <v>-0.2866745008716608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2719789901366889</v>
+      </c>
+      <c r="E71">
+        <v>-0.0980583680757327</v>
+      </c>
+      <c r="F71">
+        <v>-0.004317251062976105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.138486833123466</v>
+        <v>0.1428611528817233</v>
       </c>
       <c r="C72">
-        <v>-0.02704696533914616</v>
+        <v>0.02752601219210608</v>
       </c>
       <c r="D72">
-        <v>0.0004174249956760679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005160658591639124</v>
+      </c>
+      <c r="E72">
+        <v>0.03592536441267936</v>
+      </c>
+      <c r="F72">
+        <v>-0.03061501751801745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2057584628785206</v>
+        <v>0.2045663971524937</v>
       </c>
       <c r="C73">
-        <v>-0.01626420629266225</v>
+        <v>0.01332571215437508</v>
       </c>
       <c r="D73">
-        <v>0.01607128038510712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01637598591012399</v>
+      </c>
+      <c r="E73">
+        <v>0.06343945263121632</v>
+      </c>
+      <c r="F73">
+        <v>-0.04212048966097306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09300403546315315</v>
+        <v>0.09552188247108175</v>
       </c>
       <c r="C74">
-        <v>-0.01319853577308703</v>
+        <v>0.01370217746361795</v>
       </c>
       <c r="D74">
-        <v>0.02112218709622302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01521908664216731</v>
+      </c>
+      <c r="E74">
+        <v>0.04336518781269211</v>
+      </c>
+      <c r="F74">
+        <v>-0.05656883141856246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1348295422342411</v>
+        <v>0.1277637573013157</v>
       </c>
       <c r="C75">
-        <v>-0.0297670830158743</v>
+        <v>0.02860735372091851</v>
       </c>
       <c r="D75">
-        <v>0.02837851817869628</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02822548009705184</v>
+      </c>
+      <c r="E75">
+        <v>0.05651257573691852</v>
+      </c>
+      <c r="F75">
+        <v>-0.02169988361580525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08418305741946612</v>
+        <v>0.08932040795285941</v>
       </c>
       <c r="C77">
-        <v>-0.01531265174704462</v>
+        <v>0.008142746531634803</v>
       </c>
       <c r="D77">
-        <v>0.09532056286599343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1139107929541869</v>
+      </c>
+      <c r="E77">
+        <v>0.04355295894804992</v>
+      </c>
+      <c r="F77">
+        <v>-0.0344369848757619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1045092954617945</v>
+        <v>0.1003777837874443</v>
       </c>
       <c r="C78">
-        <v>-0.04669335897014683</v>
+        <v>0.03947677288916447</v>
       </c>
       <c r="D78">
-        <v>0.09890987003995717</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1153674370684394</v>
+      </c>
+      <c r="E78">
+        <v>0.0766294442068304</v>
+      </c>
+      <c r="F78">
+        <v>-0.05079978230661134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1639622930547261</v>
+        <v>0.1639210456149507</v>
       </c>
       <c r="C79">
-        <v>-0.02346986383254743</v>
+        <v>0.02332802549360758</v>
       </c>
       <c r="D79">
-        <v>0.01441057229867028</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01156267777723032</v>
+      </c>
+      <c r="E79">
+        <v>0.0440608175271916</v>
+      </c>
+      <c r="F79">
+        <v>-0.0114688835325134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08644565570137287</v>
+        <v>0.08205818388469839</v>
       </c>
       <c r="C80">
-        <v>-0.001617514687389345</v>
+        <v>-0.0006673379841340449</v>
       </c>
       <c r="D80">
-        <v>0.04285956419605828</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05547833033210452</v>
+      </c>
+      <c r="E80">
+        <v>0.03528106186945434</v>
+      </c>
+      <c r="F80">
+        <v>0.0192673100474177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1197070872677335</v>
+        <v>0.1183177832225939</v>
       </c>
       <c r="C81">
-        <v>-0.03198755576431162</v>
+        <v>0.0320570129828907</v>
       </c>
       <c r="D81">
-        <v>0.02433892079990327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0130424161725243</v>
+      </c>
+      <c r="E81">
+        <v>0.05472449574708701</v>
+      </c>
+      <c r="F81">
+        <v>-0.01954417296449872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1661548567803131</v>
+        <v>0.1662008113231097</v>
       </c>
       <c r="C82">
-        <v>-0.0240845173971732</v>
+        <v>0.02550521484310707</v>
       </c>
       <c r="D82">
-        <v>0.0143904961653525</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001658771960547989</v>
+      </c>
+      <c r="E82">
+        <v>0.02463443313160596</v>
+      </c>
+      <c r="F82">
+        <v>-0.08061423907170472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06807338078422599</v>
+        <v>0.05875514641220173</v>
       </c>
       <c r="C83">
-        <v>-0.006365411757368916</v>
+        <v>0.002970192123453289</v>
       </c>
       <c r="D83">
-        <v>0.03337716804528951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05008314879646571</v>
+      </c>
+      <c r="E83">
+        <v>0.003478328777456528</v>
+      </c>
+      <c r="F83">
+        <v>0.02931785666057775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06427949823411797</v>
+        <v>0.05803218632463366</v>
       </c>
       <c r="C84">
-        <v>-0.01474980161161749</v>
+        <v>0.01078912377447923</v>
       </c>
       <c r="D84">
-        <v>0.06532593931890567</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07346091933503431</v>
+      </c>
+      <c r="E84">
+        <v>0.01497925388731752</v>
+      </c>
+      <c r="F84">
+        <v>-0.01342246352676228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1369450208606156</v>
+        <v>0.1357113797056593</v>
       </c>
       <c r="C85">
-        <v>-0.02802252332704621</v>
+        <v>0.02857621414445693</v>
       </c>
       <c r="D85">
-        <v>0.01809166838118834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007341400809879382</v>
+      </c>
+      <c r="E85">
+        <v>0.03493635168284553</v>
+      </c>
+      <c r="F85">
+        <v>-0.04617606999329796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1043386102013392</v>
+        <v>0.09368451035539578</v>
       </c>
       <c r="C86">
-        <v>0.001685960105953033</v>
+        <v>-0.006211215766713363</v>
       </c>
       <c r="D86">
-        <v>-0.01219027571541648</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04880129539155181</v>
+      </c>
+      <c r="E86">
+        <v>0.2425701755388288</v>
+      </c>
+      <c r="F86">
+        <v>0.9030898842485792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1004140551870499</v>
+        <v>0.09442854380835183</v>
       </c>
       <c r="C87">
-        <v>-0.0289397669115894</v>
+        <v>0.01941789949987345</v>
       </c>
       <c r="D87">
-        <v>0.06513532050294396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09539640172358074</v>
+      </c>
+      <c r="E87">
+        <v>-0.05184486144804196</v>
+      </c>
+      <c r="F87">
+        <v>-0.04676275208818254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06062924779697787</v>
+        <v>0.06048586322860802</v>
       </c>
       <c r="C88">
-        <v>-0.005186900122563888</v>
+        <v>0.002304049443039724</v>
       </c>
       <c r="D88">
-        <v>0.05462449313590687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04927552514506889</v>
+      </c>
+      <c r="E88">
+        <v>0.023977907186405</v>
+      </c>
+      <c r="F88">
+        <v>-0.01564293564173413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1151569244400323</v>
+        <v>0.1264705902949804</v>
       </c>
       <c r="C89">
-        <v>-0.00172259838081065</v>
+        <v>0.01250963493208795</v>
       </c>
       <c r="D89">
-        <v>-0.2617620244665945</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2422708371678835</v>
+      </c>
+      <c r="E89">
+        <v>-0.08902115235010342</v>
+      </c>
+      <c r="F89">
+        <v>0.01175468010020053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1315809791993498</v>
+        <v>0.1500661856298608</v>
       </c>
       <c r="C90">
-        <v>-0.02090609543980311</v>
+        <v>0.03386502884540997</v>
       </c>
       <c r="D90">
-        <v>-0.2749605769001757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701116346230515</v>
+      </c>
+      <c r="E90">
+        <v>-0.1143801590629718</v>
+      </c>
+      <c r="F90">
+        <v>0.01247431240080642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1195408222240912</v>
+        <v>0.1218133881516459</v>
       </c>
       <c r="C91">
-        <v>-0.01905710957949146</v>
+        <v>0.02030962227598544</v>
       </c>
       <c r="D91">
-        <v>-0.007674812748352594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01800308658132406</v>
+      </c>
+      <c r="E91">
+        <v>0.05383396608352188</v>
+      </c>
+      <c r="F91">
+        <v>0.000871956108646821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1359927591199824</v>
+        <v>0.1464618087534713</v>
       </c>
       <c r="C92">
-        <v>-0.01069460386078014</v>
+        <v>0.02428790734907338</v>
       </c>
       <c r="D92">
-        <v>-0.3096740107510356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911674960686859</v>
+      </c>
+      <c r="E92">
+        <v>-0.1029580333135288</v>
+      </c>
+      <c r="F92">
+        <v>0.01950445080220288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1353263514290131</v>
+        <v>0.1499863589154022</v>
       </c>
       <c r="C93">
-        <v>-0.01647285890218064</v>
+        <v>0.02871474886856162</v>
       </c>
       <c r="D93">
-        <v>-0.2702264293004661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653793508201384</v>
+      </c>
+      <c r="E93">
+        <v>-0.07714938380447793</v>
+      </c>
+      <c r="F93">
+        <v>0.002437049441322631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1355126220318602</v>
+        <v>0.1286884072862135</v>
       </c>
       <c r="C94">
-        <v>-0.02678966363049414</v>
+        <v>0.02509156523841746</v>
       </c>
       <c r="D94">
-        <v>0.04278818959480907</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03953929305498283</v>
+      </c>
+      <c r="E94">
+        <v>0.05626010133260496</v>
+      </c>
+      <c r="F94">
+        <v>-0.0351992436069296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266201682725645</v>
+        <v>0.1260165248957456</v>
       </c>
       <c r="C95">
-        <v>-0.01053070996928296</v>
+        <v>0.003352285299903863</v>
       </c>
       <c r="D95">
-        <v>0.07348180302115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09724066755251486</v>
+      </c>
+      <c r="E95">
+        <v>0.05281552311347282</v>
+      </c>
+      <c r="F95">
+        <v>0.005765389311072442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1155804132549211</v>
+        <v>0.1104668797209674</v>
       </c>
       <c r="C96">
-        <v>0.9875067886145017</v>
+        <v>-0.9869946455273707</v>
       </c>
       <c r="D96">
-        <v>-0.009429728562588818</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05059518267786326</v>
+      </c>
+      <c r="E96">
+        <v>0.05244310543898447</v>
+      </c>
+      <c r="F96">
+        <v>-0.04296359830829193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1923572189257593</v>
+        <v>0.1917882039800904</v>
       </c>
       <c r="C97">
-        <v>0.006765658294413556</v>
+        <v>-0.006532502693258461</v>
       </c>
       <c r="D97">
-        <v>-0.01381012848097517</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02044544370828504</v>
+      </c>
+      <c r="E97">
+        <v>0.02128932545386404</v>
+      </c>
+      <c r="F97">
+        <v>0.09115417762175994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2005419328664387</v>
+        <v>0.2063164972493451</v>
       </c>
       <c r="C98">
-        <v>-0.01037791068561391</v>
+        <v>0.007320788396978166</v>
       </c>
       <c r="D98">
-        <v>0.01219972375993344</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01313421156998335</v>
+      </c>
+      <c r="E98">
+        <v>-0.07494359646294899</v>
+      </c>
+      <c r="F98">
+        <v>0.09228283370646909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05646335898342459</v>
+        <v>0.05485038625030927</v>
       </c>
       <c r="C99">
-        <v>0.002106216425258628</v>
+        <v>-0.004376978633992873</v>
       </c>
       <c r="D99">
-        <v>0.02347266758209397</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03846524985639387</v>
+      </c>
+      <c r="E99">
+        <v>0.02150331312584201</v>
+      </c>
+      <c r="F99">
+        <v>-0.003490094210441887</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1426776321209895</v>
+        <v>0.1287667732534651</v>
       </c>
       <c r="C100">
-        <v>0.03777028189331915</v>
+        <v>-0.05288846928377896</v>
       </c>
       <c r="D100">
-        <v>0.4268901039577321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3513576229389213</v>
+      </c>
+      <c r="E100">
+        <v>-0.8823169446793231</v>
+      </c>
+      <c r="F100">
+        <v>0.1685010371500513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0260615281561119</v>
+        <v>0.02876938784603315</v>
       </c>
       <c r="C101">
-        <v>-0.009927063249923859</v>
+        <v>0.008823269991376866</v>
       </c>
       <c r="D101">
-        <v>0.02030432796267612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03093570950303635</v>
+      </c>
+      <c r="E101">
+        <v>0.01346539756017598</v>
+      </c>
+      <c r="F101">
+        <v>0.01358699507289874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
